--- a/artfynd/A 59396-2022.xlsx
+++ b/artfynd/A 59396-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486578</v>
+        <v>111486552</v>
       </c>
       <c r="B2" t="n">
-        <v>77267</v>
+        <v>78081</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>229821</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610248.2770640558</v>
+        <v>610202.9845822605</v>
       </c>
       <c r="R2" t="n">
-        <v>6897273.826739896</v>
+        <v>6897614.31648521</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486580</v>
+        <v>111486584</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610100.4635512675</v>
+        <v>610335.6047682473</v>
       </c>
       <c r="R3" t="n">
-        <v>6897186.766084836</v>
+        <v>6897578.948932082</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486571</v>
+        <v>111486578</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610186.5997174035</v>
+        <v>610248.2770640558</v>
       </c>
       <c r="R4" t="n">
-        <v>6897342.822581144</v>
+        <v>6897273.826739896</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486568</v>
+        <v>111486574</v>
       </c>
       <c r="B5" t="n">
-        <v>93057</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2809</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610178.0574054071</v>
+        <v>610224.6307519674</v>
       </c>
       <c r="R5" t="n">
-        <v>6897403.74427297</v>
+        <v>6897324.444504307</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486586</v>
+        <v>111486547</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>76495</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>6487</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610319.2657305499</v>
+        <v>610214.3838179935</v>
       </c>
       <c r="R6" t="n">
-        <v>6897606.443173738</v>
+        <v>6897609.083555548</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486582</v>
+        <v>111486585</v>
       </c>
       <c r="B7" t="n">
-        <v>88489</v>
+        <v>73634</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1962</v>
+        <v>6426</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610142.0730319817</v>
+        <v>610347.1442693399</v>
       </c>
       <c r="R7" t="n">
-        <v>6897316.605782338</v>
+        <v>6897598.013066654</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486554</v>
+        <v>111486586</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610206.4050188576</v>
+        <v>610319.2657305499</v>
       </c>
       <c r="R8" t="n">
-        <v>6897581.260525526</v>
+        <v>6897606.443173738</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486563</v>
+        <v>111486576</v>
       </c>
       <c r="B9" t="n">
         <v>77186</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610237.2946205279</v>
+        <v>610214.2438761768</v>
       </c>
       <c r="R9" t="n">
-        <v>6897509.394074276</v>
+        <v>6897284.393316317</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486551</v>
+        <v>111486556</v>
       </c>
       <c r="B10" t="n">
-        <v>89425</v>
+        <v>78107</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5442</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610206.9311065455</v>
+        <v>610193.6094834032</v>
       </c>
       <c r="R10" t="n">
-        <v>6897622.387123355</v>
+        <v>6897571.966054032</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111486570</v>
+        <v>111486565</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>78081</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610138.2204190179</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R11" t="n">
-        <v>6897377.214110524</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111486564</v>
+        <v>111486568</v>
       </c>
       <c r="B12" t="n">
-        <v>5135</v>
+        <v>93057</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>105930</v>
+        <v>2809</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610237.2946205279</v>
+        <v>610178.0574054071</v>
       </c>
       <c r="R12" t="n">
-        <v>6897509.394074276</v>
+        <v>6897403.74427297</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111486567</v>
+        <v>111486583</v>
       </c>
       <c r="B13" t="n">
-        <v>93057</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2809</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610195.0273142112</v>
+        <v>610170.0873515971</v>
       </c>
       <c r="R13" t="n">
-        <v>6897457.090065848</v>
+        <v>6897389.935445569</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111486581</v>
+        <v>111486548</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610072.3796948178</v>
+        <v>610211.0056098022</v>
       </c>
       <c r="R14" t="n">
-        <v>6897129.783162965</v>
+        <v>6897612.243104065</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111486560</v>
+        <v>111486582</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>88489</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>1962</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610242.9519009186</v>
+        <v>610142.0730319817</v>
       </c>
       <c r="R15" t="n">
-        <v>6897536.674650873</v>
+        <v>6897316.605782338</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111486556</v>
+        <v>111486577</v>
       </c>
       <c r="B16" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610193.6094834032</v>
+        <v>610245.4727674432</v>
       </c>
       <c r="R16" t="n">
-        <v>6897571.966054032</v>
+        <v>6897273.734988614</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111486547</v>
+        <v>111486564</v>
       </c>
       <c r="B17" t="n">
-        <v>76495</v>
+        <v>5135</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6487</v>
+        <v>105930</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610214.3838179935</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R17" t="n">
-        <v>6897609.083555548</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111486583</v>
+        <v>111486566</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2484,25 +2484,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610170.0873515971</v>
+        <v>610196.0688674429</v>
       </c>
       <c r="R18" t="n">
-        <v>6897389.935445569</v>
+        <v>6897453.853924472</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2560,12 +2560,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>på mossbeväxt block</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111486559</v>
+        <v>111486562</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2624,10 +2630,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610236.04261225</v>
+        <v>610236.2225055038</v>
       </c>
       <c r="R19" t="n">
-        <v>6897547.660441305</v>
+        <v>6897513.563481026</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2696,10 +2702,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111486565</v>
+        <v>111486571</v>
       </c>
       <c r="B20" t="n">
-        <v>78081</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2708,25 +2714,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>229821</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2742,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610237.2946205279</v>
+        <v>610186.5997174035</v>
       </c>
       <c r="R20" t="n">
-        <v>6897509.394074276</v>
+        <v>6897342.822581144</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2808,7 +2814,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111486566</v>
+        <v>111486575</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2848,10 +2854,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610196.0688674429</v>
+        <v>610234.356536509</v>
       </c>
       <c r="R21" t="n">
-        <v>6897453.853924472</v>
+        <v>6897284.584036393</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2896,18 +2902,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>på mossbeväxt block</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111486562</v>
+        <v>111486560</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2938,25 +2938,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610236.2225055038</v>
+        <v>610242.9519009186</v>
       </c>
       <c r="R22" t="n">
-        <v>6897513.563481026</v>
+        <v>6897536.674650873</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111486573</v>
+        <v>111486570</v>
       </c>
       <c r="B23" t="n">
-        <v>96383</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3050,25 +3050,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>223621</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610146.8202491006</v>
+        <v>610138.2204190179</v>
       </c>
       <c r="R23" t="n">
-        <v>6897400.387088978</v>
+        <v>6897377.214110524</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111486585</v>
+        <v>111486569</v>
       </c>
       <c r="B24" t="n">
-        <v>73634</v>
+        <v>89425</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3162,25 +3162,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6426</v>
+        <v>5442</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3190,10 +3190,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>610347.1442693399</v>
+        <v>610141.0038371853</v>
       </c>
       <c r="R24" t="n">
-        <v>6897598.013066654</v>
+        <v>6897392.254898546</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111486574</v>
+        <v>111486573</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>96383</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3274,25 +3274,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>223621</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610224.6307519674</v>
+        <v>610146.8202491006</v>
       </c>
       <c r="R25" t="n">
-        <v>6897324.444504307</v>
+        <v>6897400.387088978</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111486576</v>
+        <v>111486567</v>
       </c>
       <c r="B26" t="n">
-        <v>77186</v>
+        <v>93057</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3386,25 +3386,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>2809</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610214.2438761768</v>
+        <v>610195.0273142112</v>
       </c>
       <c r="R26" t="n">
-        <v>6897284.393316317</v>
+        <v>6897457.090065848</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111486584</v>
+        <v>111486551</v>
       </c>
       <c r="B27" t="n">
-        <v>78512</v>
+        <v>89425</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3498,25 +3498,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6456</v>
+        <v>5442</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610335.6047682473</v>
+        <v>610206.9311065455</v>
       </c>
       <c r="R27" t="n">
-        <v>6897578.948932082</v>
+        <v>6897622.387123355</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111486557</v>
+        <v>111486580</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610221.9365824561</v>
+        <v>610100.4635512675</v>
       </c>
       <c r="R28" t="n">
-        <v>6897535.519929474</v>
+        <v>6897186.766084836</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111486577</v>
+        <v>111486559</v>
       </c>
       <c r="B29" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3722,25 +3722,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3750,10 +3750,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610245.4727674432</v>
+        <v>610236.04261225</v>
       </c>
       <c r="R29" t="n">
-        <v>6897273.734988614</v>
+        <v>6897547.660441305</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111486552</v>
+        <v>111486554</v>
       </c>
       <c r="B30" t="n">
-        <v>78081</v>
+        <v>78107</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3838,21 +3838,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3862,10 +3862,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610202.9845822605</v>
+        <v>610206.4050188576</v>
       </c>
       <c r="R30" t="n">
-        <v>6897614.31648521</v>
+        <v>6897581.260525526</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111486569</v>
+        <v>111486557</v>
       </c>
       <c r="B31" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3946,25 +3946,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610141.0038371853</v>
+        <v>610221.9365824561</v>
       </c>
       <c r="R31" t="n">
-        <v>6897392.254898546</v>
+        <v>6897535.519929474</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111486548</v>
+        <v>111486581</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4170,25 +4170,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610211.0056098022</v>
+        <v>610072.3796948178</v>
       </c>
       <c r="R33" t="n">
-        <v>6897612.243104065</v>
+        <v>6897129.783162965</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111486575</v>
+        <v>111486563</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4282,25 +4282,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>610234.356536509</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R34" t="n">
-        <v>6897284.584036393</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>

--- a/artfynd/A 59396-2022.xlsx
+++ b/artfynd/A 59396-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486552</v>
+        <v>111486560</v>
       </c>
       <c r="B2" t="n">
-        <v>78081</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229821</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610202.9845822605</v>
+        <v>610242.9519009186</v>
       </c>
       <c r="R2" t="n">
-        <v>6897614.31648521</v>
+        <v>6897536.674650873</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486584</v>
+        <v>111486557</v>
       </c>
       <c r="B3" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610335.6047682473</v>
+        <v>610221.9365824561</v>
       </c>
       <c r="R3" t="n">
-        <v>6897578.948932082</v>
+        <v>6897535.519929474</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486578</v>
+        <v>111486586</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610248.2770640558</v>
+        <v>610319.2657305499</v>
       </c>
       <c r="R4" t="n">
-        <v>6897273.826739896</v>
+        <v>6897606.443173738</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486574</v>
+        <v>111486573</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>96383</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>223621</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610224.6307519674</v>
+        <v>610146.8202491006</v>
       </c>
       <c r="R5" t="n">
-        <v>6897324.444504307</v>
+        <v>6897400.387088978</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486547</v>
+        <v>111486569</v>
       </c>
       <c r="B6" t="n">
-        <v>76495</v>
+        <v>89425</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6487</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610214.3838179935</v>
+        <v>610141.0038371853</v>
       </c>
       <c r="R6" t="n">
-        <v>6897609.083555548</v>
+        <v>6897392.254898546</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486585</v>
+        <v>111486583</v>
       </c>
       <c r="B7" t="n">
-        <v>73634</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6426</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610347.1442693399</v>
+        <v>610170.0873515971</v>
       </c>
       <c r="R7" t="n">
-        <v>6897598.013066654</v>
+        <v>6897389.935445569</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486586</v>
+        <v>111486559</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610319.2657305499</v>
+        <v>610236.04261225</v>
       </c>
       <c r="R8" t="n">
-        <v>6897606.443173738</v>
+        <v>6897547.660441305</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486576</v>
+        <v>111486580</v>
       </c>
       <c r="B9" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610214.2438761768</v>
+        <v>610100.4635512675</v>
       </c>
       <c r="R9" t="n">
-        <v>6897284.393316317</v>
+        <v>6897186.766084836</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486556</v>
+        <v>111486572</v>
       </c>
       <c r="B10" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610193.6094834032</v>
+        <v>610186.866762756</v>
       </c>
       <c r="R10" t="n">
-        <v>6897571.966054032</v>
+        <v>6897391.885662847</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111486565</v>
+        <v>111486585</v>
       </c>
       <c r="B11" t="n">
-        <v>78081</v>
+        <v>73634</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229821</v>
+        <v>6426</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610237.2946205279</v>
+        <v>610347.1442693399</v>
       </c>
       <c r="R11" t="n">
-        <v>6897509.394074276</v>
+        <v>6897598.013066654</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111486568</v>
+        <v>111486554</v>
       </c>
       <c r="B12" t="n">
-        <v>93057</v>
+        <v>78107</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2809</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610178.0574054071</v>
+        <v>610206.4050188576</v>
       </c>
       <c r="R12" t="n">
-        <v>6897403.74427297</v>
+        <v>6897581.260525526</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111486583</v>
+        <v>111486547</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>76495</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6487</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610170.0873515971</v>
+        <v>610214.3838179935</v>
       </c>
       <c r="R13" t="n">
-        <v>6897389.935445569</v>
+        <v>6897609.083555548</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111486548</v>
+        <v>111486556</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610211.0056098022</v>
+        <v>610193.6094834032</v>
       </c>
       <c r="R14" t="n">
-        <v>6897612.243104065</v>
+        <v>6897571.966054032</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111486582</v>
+        <v>111486562</v>
       </c>
       <c r="B15" t="n">
-        <v>88489</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1962</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610142.0730319817</v>
+        <v>610236.2225055038</v>
       </c>
       <c r="R15" t="n">
-        <v>6897316.605782338</v>
+        <v>6897513.563481026</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111486577</v>
+        <v>111486584</v>
       </c>
       <c r="B16" t="n">
-        <v>77268</v>
+        <v>78512</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>6456</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610245.4727674432</v>
+        <v>610335.6047682473</v>
       </c>
       <c r="R16" t="n">
-        <v>6897273.734988614</v>
+        <v>6897578.948932082</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111486564</v>
+        <v>111486578</v>
       </c>
       <c r="B17" t="n">
-        <v>5135</v>
+        <v>77267</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>105930</v>
+        <v>6446</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610237.2946205279</v>
+        <v>610248.2770640558</v>
       </c>
       <c r="R17" t="n">
-        <v>6897509.394074276</v>
+        <v>6897273.826739896</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111486566</v>
+        <v>111486568</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>93057</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2484,25 +2484,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>2809</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610196.0688674429</v>
+        <v>610178.0574054071</v>
       </c>
       <c r="R18" t="n">
-        <v>6897453.853924472</v>
+        <v>6897403.74427297</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2560,18 +2560,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>på mossbeväxt block</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2590,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111486562</v>
+        <v>111486563</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2602,25 +2596,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2630,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610236.2225055038</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R19" t="n">
-        <v>6897513.563481026</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2702,7 +2696,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111486571</v>
+        <v>111486570</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2742,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610186.5997174035</v>
+        <v>610138.2204190179</v>
       </c>
       <c r="R20" t="n">
-        <v>6897342.822581144</v>
+        <v>6897377.214110524</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2814,7 +2808,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111486575</v>
+        <v>111486581</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2854,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610234.356536509</v>
+        <v>610072.3796948178</v>
       </c>
       <c r="R21" t="n">
-        <v>6897284.584036393</v>
+        <v>6897129.783162965</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2926,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111486560</v>
+        <v>111486565</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>78081</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2942,21 +2936,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>229821</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2966,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610242.9519009186</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R22" t="n">
-        <v>6897536.674650873</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3038,10 +3032,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111486570</v>
+        <v>111486577</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3050,25 +3044,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3078,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610138.2204190179</v>
+        <v>610245.4727674432</v>
       </c>
       <c r="R23" t="n">
-        <v>6897377.214110524</v>
+        <v>6897273.734988614</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3150,7 +3144,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111486569</v>
+        <v>111486551</v>
       </c>
       <c r="B24" t="n">
         <v>89425</v>
@@ -3190,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>610141.0038371853</v>
+        <v>610206.9311065455</v>
       </c>
       <c r="R24" t="n">
-        <v>6897392.254898546</v>
+        <v>6897622.387123355</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3262,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111486573</v>
+        <v>111486566</v>
       </c>
       <c r="B25" t="n">
-        <v>96383</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3274,25 +3268,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>223621</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3302,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610146.8202491006</v>
+        <v>610196.0688674429</v>
       </c>
       <c r="R25" t="n">
-        <v>6897400.387088978</v>
+        <v>6897453.853924472</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3350,12 +3344,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>på mossbeväxt block</t>
+        </is>
+      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111486567</v>
+        <v>111486576</v>
       </c>
       <c r="B26" t="n">
-        <v>93057</v>
+        <v>77186</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3386,25 +3386,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2809</v>
+        <v>353</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610195.0273142112</v>
+        <v>610214.2438761768</v>
       </c>
       <c r="R26" t="n">
-        <v>6897457.090065848</v>
+        <v>6897284.393316317</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111486551</v>
+        <v>111486548</v>
       </c>
       <c r="B27" t="n">
-        <v>89425</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3502,21 +3502,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610206.9311065455</v>
+        <v>610211.0056098022</v>
       </c>
       <c r="R27" t="n">
-        <v>6897622.387123355</v>
+        <v>6897612.243104065</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111486580</v>
+        <v>111486552</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>78081</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3610,25 +3610,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610100.4635512675</v>
+        <v>610202.9845822605</v>
       </c>
       <c r="R28" t="n">
-        <v>6897186.766084836</v>
+        <v>6897614.31648521</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111486559</v>
+        <v>111486567</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>93057</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3722,25 +3722,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>2809</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3750,10 +3750,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610236.04261225</v>
+        <v>610195.0273142112</v>
       </c>
       <c r="R29" t="n">
-        <v>6897547.660441305</v>
+        <v>6897457.090065848</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111486554</v>
+        <v>111486574</v>
       </c>
       <c r="B30" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3834,25 +3834,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3862,10 +3862,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610206.4050188576</v>
+        <v>610224.6307519674</v>
       </c>
       <c r="R30" t="n">
-        <v>6897581.260525526</v>
+        <v>6897324.444504307</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111486557</v>
+        <v>111486582</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>88489</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3946,25 +3946,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>1962</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610221.9365824561</v>
+        <v>610142.0730319817</v>
       </c>
       <c r="R31" t="n">
-        <v>6897535.519929474</v>
+        <v>6897316.605782338</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111486572</v>
+        <v>111486564</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4058,25 +4058,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610186.866762756</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R32" t="n">
-        <v>6897391.885662847</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111486581</v>
+        <v>111486571</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610072.3796948178</v>
+        <v>610186.5997174035</v>
       </c>
       <c r="R33" t="n">
-        <v>6897129.783162965</v>
+        <v>6897342.822581144</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111486563</v>
+        <v>111486575</v>
       </c>
       <c r="B34" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4282,25 +4282,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>610237.2946205279</v>
+        <v>610234.356536509</v>
       </c>
       <c r="R34" t="n">
-        <v>6897509.394074276</v>
+        <v>6897284.584036393</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>

--- a/artfynd/A 59396-2022.xlsx
+++ b/artfynd/A 59396-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486560</v>
+        <v>111486571</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610242.9519009186</v>
+        <v>610186.5997174035</v>
       </c>
       <c r="R2" t="n">
-        <v>6897536.674650873</v>
+        <v>6897342.822581144</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486557</v>
+        <v>111486578</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610221.9365824561</v>
+        <v>610248.2770640558</v>
       </c>
       <c r="R3" t="n">
-        <v>6897535.519929474</v>
+        <v>6897273.826739896</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486586</v>
+        <v>111486564</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610319.2657305499</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R4" t="n">
-        <v>6897606.443173738</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486573</v>
+        <v>111486559</v>
       </c>
       <c r="B5" t="n">
-        <v>96383</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>223621</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610146.8202491006</v>
+        <v>610236.04261225</v>
       </c>
       <c r="R5" t="n">
-        <v>6897400.387088978</v>
+        <v>6897547.660441305</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486583</v>
+        <v>111486563</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>77186</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610170.0873515971</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R7" t="n">
-        <v>6897389.935445569</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486559</v>
+        <v>111486565</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>78081</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610236.04261225</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R8" t="n">
-        <v>6897547.660441305</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486580</v>
+        <v>111486566</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610100.4635512675</v>
+        <v>610196.0688674429</v>
       </c>
       <c r="R9" t="n">
-        <v>6897186.766084836</v>
+        <v>6897453.853924472</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1552,12 +1552,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>på mossbeväxt block</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1576,10 +1582,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486572</v>
+        <v>111486573</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>96383</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1594,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>223621</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1622,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610186.866762756</v>
+        <v>610146.8202491006</v>
       </c>
       <c r="R10" t="n">
-        <v>6897391.885662847</v>
+        <v>6897400.387088978</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1688,10 +1694,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111486585</v>
+        <v>111486567</v>
       </c>
       <c r="B11" t="n">
-        <v>73634</v>
+        <v>93057</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1710,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6426</v>
+        <v>2809</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1734,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610347.1442693399</v>
+        <v>610195.0273142112</v>
       </c>
       <c r="R11" t="n">
-        <v>6897598.013066654</v>
+        <v>6897457.090065848</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,10 +1806,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111486554</v>
+        <v>111486562</v>
       </c>
       <c r="B12" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1818,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1846,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610206.4050188576</v>
+        <v>610236.2225055038</v>
       </c>
       <c r="R12" t="n">
-        <v>6897581.260525526</v>
+        <v>6897513.563481026</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,10 +1918,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111486547</v>
+        <v>111486582</v>
       </c>
       <c r="B13" t="n">
-        <v>76495</v>
+        <v>88489</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1934,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6487</v>
+        <v>1962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610214.3838179935</v>
+        <v>610142.0730319817</v>
       </c>
       <c r="R13" t="n">
-        <v>6897609.083555548</v>
+        <v>6897316.605782338</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2024,10 +2030,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111486556</v>
+        <v>111486586</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2042,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2070,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610193.6094834032</v>
+        <v>610319.2657305499</v>
       </c>
       <c r="R14" t="n">
-        <v>6897571.966054032</v>
+        <v>6897606.443173738</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2136,7 +2142,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111486562</v>
+        <v>111486570</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2176,10 +2182,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610236.2225055038</v>
+        <v>610138.2204190179</v>
       </c>
       <c r="R15" t="n">
-        <v>6897513.563481026</v>
+        <v>6897377.214110524</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,10 +2254,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111486584</v>
+        <v>111486572</v>
       </c>
       <c r="B16" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2266,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2294,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610335.6047682473</v>
+        <v>610186.866762756</v>
       </c>
       <c r="R16" t="n">
-        <v>6897578.948932082</v>
+        <v>6897391.885662847</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2360,10 +2366,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111486578</v>
+        <v>111486552</v>
       </c>
       <c r="B17" t="n">
-        <v>77267</v>
+        <v>78081</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2382,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6446</v>
+        <v>229821</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2406,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610248.2770640558</v>
+        <v>610202.9845822605</v>
       </c>
       <c r="R17" t="n">
-        <v>6897273.826739896</v>
+        <v>6897614.31648521</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2472,10 +2478,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111486568</v>
+        <v>111486585</v>
       </c>
       <c r="B18" t="n">
-        <v>93057</v>
+        <v>73634</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2494,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2809</v>
+        <v>6426</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2518,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610178.0574054071</v>
+        <v>610347.1442693399</v>
       </c>
       <c r="R18" t="n">
-        <v>6897403.74427297</v>
+        <v>6897598.013066654</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2584,10 +2590,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111486563</v>
+        <v>111486580</v>
       </c>
       <c r="B19" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,25 +2602,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2630,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610237.2946205279</v>
+        <v>610100.4635512675</v>
       </c>
       <c r="R19" t="n">
-        <v>6897509.394074276</v>
+        <v>6897186.766084836</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2696,7 +2702,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111486570</v>
+        <v>111486557</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2736,10 +2742,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610138.2204190179</v>
+        <v>610221.9365824561</v>
       </c>
       <c r="R20" t="n">
-        <v>6897377.214110524</v>
+        <v>6897535.519929474</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2808,7 +2814,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111486581</v>
+        <v>111486575</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2848,10 +2854,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610072.3796948178</v>
+        <v>610234.356536509</v>
       </c>
       <c r="R21" t="n">
-        <v>6897129.783162965</v>
+        <v>6897284.584036393</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2920,10 +2926,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111486565</v>
+        <v>111486547</v>
       </c>
       <c r="B22" t="n">
-        <v>78081</v>
+        <v>76495</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,21 +2942,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>229821</v>
+        <v>6487</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2966,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610237.2946205279</v>
+        <v>610214.3838179935</v>
       </c>
       <c r="R22" t="n">
-        <v>6897509.394074276</v>
+        <v>6897609.083555548</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3144,10 +3150,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111486551</v>
+        <v>111486568</v>
       </c>
       <c r="B24" t="n">
-        <v>89425</v>
+        <v>93057</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3156,25 +3162,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5442</v>
+        <v>2809</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3184,10 +3190,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>610206.9311065455</v>
+        <v>610178.0574054071</v>
       </c>
       <c r="R24" t="n">
-        <v>6897622.387123355</v>
+        <v>6897403.74427297</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3256,10 +3262,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111486566</v>
+        <v>111486560</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3268,25 +3274,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3302,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610196.0688674429</v>
+        <v>610242.9519009186</v>
       </c>
       <c r="R25" t="n">
-        <v>6897453.853924472</v>
+        <v>6897536.674650873</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3344,18 +3350,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>på mossbeväxt block</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111486576</v>
+        <v>111486548</v>
       </c>
       <c r="B26" t="n">
-        <v>77186</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3390,21 +3390,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610214.2438761768</v>
+        <v>610211.0056098022</v>
       </c>
       <c r="R26" t="n">
-        <v>6897284.393316317</v>
+        <v>6897612.243104065</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111486548</v>
+        <v>111486583</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3502,21 +3502,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610211.0056098022</v>
+        <v>610170.0873515971</v>
       </c>
       <c r="R27" t="n">
-        <v>6897612.243104065</v>
+        <v>6897389.935445569</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111486552</v>
+        <v>111486554</v>
       </c>
       <c r="B28" t="n">
-        <v>78081</v>
+        <v>78107</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3614,21 +3614,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610202.9845822605</v>
+        <v>610206.4050188576</v>
       </c>
       <c r="R28" t="n">
-        <v>6897614.31648521</v>
+        <v>6897581.260525526</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111486567</v>
+        <v>111486551</v>
       </c>
       <c r="B29" t="n">
-        <v>93057</v>
+        <v>89425</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3722,25 +3722,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2809</v>
+        <v>5442</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3750,10 +3750,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610195.0273142112</v>
+        <v>610206.9311065455</v>
       </c>
       <c r="R29" t="n">
-        <v>6897457.090065848</v>
+        <v>6897622.387123355</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111486574</v>
+        <v>111486556</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3834,25 +3834,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3862,10 +3862,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610224.6307519674</v>
+        <v>610193.6094834032</v>
       </c>
       <c r="R30" t="n">
-        <v>6897324.444504307</v>
+        <v>6897571.966054032</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111486582</v>
+        <v>111486574</v>
       </c>
       <c r="B31" t="n">
-        <v>88489</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3946,25 +3946,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1962</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610142.0730319817</v>
+        <v>610224.6307519674</v>
       </c>
       <c r="R31" t="n">
-        <v>6897316.605782338</v>
+        <v>6897324.444504307</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111486564</v>
+        <v>111486576</v>
       </c>
       <c r="B32" t="n">
-        <v>5135</v>
+        <v>77186</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4058,25 +4058,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>105930</v>
+        <v>353</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610237.2946205279</v>
+        <v>610214.2438761768</v>
       </c>
       <c r="R32" t="n">
-        <v>6897509.394074276</v>
+        <v>6897284.393316317</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111486571</v>
+        <v>111486581</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610186.5997174035</v>
+        <v>610072.3796948178</v>
       </c>
       <c r="R33" t="n">
-        <v>6897342.822581144</v>
+        <v>6897129.783162965</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111486575</v>
+        <v>111486584</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4282,25 +4282,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>610234.356536509</v>
+        <v>610335.6047682473</v>
       </c>
       <c r="R34" t="n">
-        <v>6897284.584036393</v>
+        <v>6897578.948932082</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>

--- a/artfynd/A 59396-2022.xlsx
+++ b/artfynd/A 59396-2022.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486578</v>
+        <v>111486554</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610248.2770640558</v>
+        <v>610206.4050188576</v>
       </c>
       <c r="R3" t="n">
-        <v>6897273.826739896</v>
+        <v>6897581.260525526</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486564</v>
+        <v>111486568</v>
       </c>
       <c r="B4" t="n">
-        <v>5135</v>
+        <v>93057</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105930</v>
+        <v>2809</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610237.2946205279</v>
+        <v>610178.0574054071</v>
       </c>
       <c r="R4" t="n">
-        <v>6897509.394074276</v>
+        <v>6897403.74427297</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486559</v>
+        <v>111486586</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610236.04261225</v>
+        <v>610319.2657305499</v>
       </c>
       <c r="R5" t="n">
-        <v>6897547.660441305</v>
+        <v>6897606.443173738</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486569</v>
+        <v>111486585</v>
       </c>
       <c r="B6" t="n">
-        <v>89425</v>
+        <v>73634</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>6426</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610141.0038371853</v>
+        <v>610347.1442693399</v>
       </c>
       <c r="R6" t="n">
-        <v>6897392.254898546</v>
+        <v>6897598.013066654</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486563</v>
+        <v>111486578</v>
       </c>
       <c r="B7" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610237.2946205279</v>
+        <v>610248.2770640558</v>
       </c>
       <c r="R7" t="n">
-        <v>6897509.394074276</v>
+        <v>6897273.826739896</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486565</v>
+        <v>111486564</v>
       </c>
       <c r="B8" t="n">
-        <v>78081</v>
+        <v>5135</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229821</v>
+        <v>105930</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486573</v>
+        <v>111486575</v>
       </c>
       <c r="B10" t="n">
-        <v>96383</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1594,25 +1594,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>223621</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610146.8202491006</v>
+        <v>610234.356536509</v>
       </c>
       <c r="R10" t="n">
-        <v>6897400.387088978</v>
+        <v>6897284.584036393</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111486567</v>
+        <v>111486582</v>
       </c>
       <c r="B11" t="n">
-        <v>93057</v>
+        <v>88489</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,25 +1706,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2809</v>
+        <v>1962</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610195.0273142112</v>
+        <v>610142.0730319817</v>
       </c>
       <c r="R11" t="n">
-        <v>6897457.090065848</v>
+        <v>6897316.605782338</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111486562</v>
+        <v>111486557</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1846,10 +1846,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610236.2225055038</v>
+        <v>610221.9365824561</v>
       </c>
       <c r="R12" t="n">
-        <v>6897513.563481026</v>
+        <v>6897535.519929474</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111486582</v>
+        <v>111486581</v>
       </c>
       <c r="B13" t="n">
-        <v>88489</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1930,25 +1930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1958,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610142.0730319817</v>
+        <v>610072.3796948178</v>
       </c>
       <c r="R13" t="n">
-        <v>6897316.605782338</v>
+        <v>6897129.783162965</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111486586</v>
+        <v>111486569</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2042,25 +2042,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610319.2657305499</v>
+        <v>610141.0038371853</v>
       </c>
       <c r="R14" t="n">
-        <v>6897606.443173738</v>
+        <v>6897392.254898546</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111486570</v>
+        <v>111486547</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>76495</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2154,25 +2154,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6487</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2182,10 +2182,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610138.2204190179</v>
+        <v>610214.3838179935</v>
       </c>
       <c r="R15" t="n">
-        <v>6897377.214110524</v>
+        <v>6897609.083555548</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111486572</v>
+        <v>111486577</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2266,25 +2266,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610186.866762756</v>
+        <v>610245.4727674432</v>
       </c>
       <c r="R16" t="n">
-        <v>6897391.885662847</v>
+        <v>6897273.734988614</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111486552</v>
+        <v>111486548</v>
       </c>
       <c r="B17" t="n">
-        <v>78081</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2382,21 +2382,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2406,10 +2406,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610202.9845822605</v>
+        <v>610211.0056098022</v>
       </c>
       <c r="R17" t="n">
-        <v>6897614.31648521</v>
+        <v>6897612.243104065</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111486585</v>
+        <v>111486574</v>
       </c>
       <c r="B18" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2518,10 +2518,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610347.1442693399</v>
+        <v>610224.6307519674</v>
       </c>
       <c r="R18" t="n">
-        <v>6897598.013066654</v>
+        <v>6897324.444504307</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111486580</v>
+        <v>111486565</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>78081</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2602,25 +2602,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2630,10 +2630,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610100.4635512675</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R19" t="n">
-        <v>6897186.766084836</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111486557</v>
+        <v>111486576</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2714,25 +2714,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2742,10 +2742,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610221.9365824561</v>
+        <v>610214.2438761768</v>
       </c>
       <c r="R20" t="n">
-        <v>6897535.519929474</v>
+        <v>6897284.393316317</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111486575</v>
+        <v>111486562</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2854,10 +2854,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610234.356536509</v>
+        <v>610236.2225055038</v>
       </c>
       <c r="R21" t="n">
-        <v>6897284.584036393</v>
+        <v>6897513.563481026</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111486547</v>
+        <v>111486572</v>
       </c>
       <c r="B22" t="n">
-        <v>76495</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2938,25 +2938,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6487</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610214.3838179935</v>
+        <v>610186.866762756</v>
       </c>
       <c r="R22" t="n">
-        <v>6897609.083555548</v>
+        <v>6897391.885662847</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111486577</v>
+        <v>111486559</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3050,25 +3050,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610245.4727674432</v>
+        <v>610236.04261225</v>
       </c>
       <c r="R23" t="n">
-        <v>6897273.734988614</v>
+        <v>6897547.660441305</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111486568</v>
+        <v>111486583</v>
       </c>
       <c r="B24" t="n">
-        <v>93057</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3162,25 +3162,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2809</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3190,10 +3190,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>610178.0574054071</v>
+        <v>610170.0873515971</v>
       </c>
       <c r="R24" t="n">
-        <v>6897403.74427297</v>
+        <v>6897389.935445569</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111486560</v>
+        <v>111486567</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>93057</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3274,25 +3274,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>2809</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610242.9519009186</v>
+        <v>610195.0273142112</v>
       </c>
       <c r="R25" t="n">
-        <v>6897536.674650873</v>
+        <v>6897457.090065848</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111486548</v>
+        <v>111486560</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3390,21 +3390,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610211.0056098022</v>
+        <v>610242.9519009186</v>
       </c>
       <c r="R26" t="n">
-        <v>6897612.243104065</v>
+        <v>6897536.674650873</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111486583</v>
+        <v>111486570</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3498,25 +3498,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610170.0873515971</v>
+        <v>610138.2204190179</v>
       </c>
       <c r="R27" t="n">
-        <v>6897389.935445569</v>
+        <v>6897377.214110524</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111486554</v>
+        <v>111486552</v>
       </c>
       <c r="B28" t="n">
-        <v>78107</v>
+        <v>78081</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3614,21 +3614,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610206.4050188576</v>
+        <v>610202.9845822605</v>
       </c>
       <c r="R28" t="n">
-        <v>6897581.260525526</v>
+        <v>6897614.31648521</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111486551</v>
+        <v>111486573</v>
       </c>
       <c r="B29" t="n">
-        <v>89425</v>
+        <v>96383</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3722,25 +3722,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5442</v>
+        <v>223621</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3750,10 +3750,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610206.9311065455</v>
+        <v>610146.8202491006</v>
       </c>
       <c r="R29" t="n">
-        <v>6897622.387123355</v>
+        <v>6897400.387088978</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111486556</v>
+        <v>111486584</v>
       </c>
       <c r="B30" t="n">
-        <v>78107</v>
+        <v>78512</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3834,25 +3834,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6453</v>
+        <v>6456</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3862,10 +3862,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610193.6094834032</v>
+        <v>610335.6047682473</v>
       </c>
       <c r="R30" t="n">
-        <v>6897571.966054032</v>
+        <v>6897578.948932082</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111486574</v>
+        <v>111486580</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610224.6307519674</v>
+        <v>610100.4635512675</v>
       </c>
       <c r="R31" t="n">
-        <v>6897324.444504307</v>
+        <v>6897186.766084836</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111486576</v>
+        <v>111486556</v>
       </c>
       <c r="B32" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,21 +4062,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610214.2438761768</v>
+        <v>610193.6094834032</v>
       </c>
       <c r="R32" t="n">
-        <v>6897284.393316317</v>
+        <v>6897571.966054032</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111486581</v>
+        <v>111486551</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4170,25 +4170,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610072.3796948178</v>
+        <v>610206.9311065455</v>
       </c>
       <c r="R33" t="n">
-        <v>6897129.783162965</v>
+        <v>6897622.387123355</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111486584</v>
+        <v>111486563</v>
       </c>
       <c r="B34" t="n">
-        <v>78512</v>
+        <v>77186</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4282,25 +4282,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6456</v>
+        <v>353</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>610335.6047682473</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R34" t="n">
-        <v>6897578.948932082</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>

--- a/artfynd/A 59396-2022.xlsx
+++ b/artfynd/A 59396-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486571</v>
+        <v>111486577</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610186.5997174035</v>
+        <v>610245.4727674432</v>
       </c>
       <c r="R2" t="n">
-        <v>6897342.822581144</v>
+        <v>6897273.734988614</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486554</v>
+        <v>111486547</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610206.4050188576</v>
+        <v>610214.3838179935</v>
       </c>
       <c r="R3" t="n">
-        <v>6897581.260525526</v>
+        <v>6897609.083555548</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486568</v>
+        <v>111486551</v>
       </c>
       <c r="B4" t="n">
-        <v>93057</v>
+        <v>89425</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2809</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610178.0574054071</v>
+        <v>610206.9311065455</v>
       </c>
       <c r="R4" t="n">
-        <v>6897403.74427297</v>
+        <v>6897622.387123355</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486586</v>
+        <v>111486580</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610319.2657305499</v>
+        <v>610100.4635512675</v>
       </c>
       <c r="R5" t="n">
-        <v>6897606.443173738</v>
+        <v>6897186.766084836</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486585</v>
+        <v>111486566</v>
       </c>
       <c r="B6" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610347.1442693399</v>
+        <v>610196.0688674429</v>
       </c>
       <c r="R6" t="n">
-        <v>6897598.013066654</v>
+        <v>6897453.853924472</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1216,12 +1216,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>på mossbeväxt block</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1240,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486578</v>
+        <v>111486565</v>
       </c>
       <c r="B7" t="n">
-        <v>77267</v>
+        <v>78081</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1262,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>229821</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610248.2770640558</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R7" t="n">
-        <v>6897273.826739896</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486564</v>
+        <v>111486576</v>
       </c>
       <c r="B8" t="n">
-        <v>5135</v>
+        <v>77186</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>105930</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1398,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610237.2946205279</v>
+        <v>610214.2438761768</v>
       </c>
       <c r="R8" t="n">
-        <v>6897509.394074276</v>
+        <v>6897284.393316317</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1464,10 +1470,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486566</v>
+        <v>111486584</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1482,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1510,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610196.0688674429</v>
+        <v>610335.6047682473</v>
       </c>
       <c r="R9" t="n">
-        <v>6897453.853924472</v>
+        <v>6897578.948932082</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1552,18 +1558,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>på mossbeväxt block</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486575</v>
+        <v>111486570</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610234.356536509</v>
+        <v>610138.2204190179</v>
       </c>
       <c r="R10" t="n">
-        <v>6897284.584036393</v>
+        <v>6897377.214110524</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111486582</v>
+        <v>111486569</v>
       </c>
       <c r="B11" t="n">
-        <v>88489</v>
+        <v>89425</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1710,21 +1710,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1962</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610142.0730319817</v>
+        <v>610141.0038371853</v>
       </c>
       <c r="R11" t="n">
-        <v>6897316.605782338</v>
+        <v>6897392.254898546</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111486557</v>
+        <v>111486554</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1818,25 +1818,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1846,10 +1846,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610221.9365824561</v>
+        <v>610206.4050188576</v>
       </c>
       <c r="R12" t="n">
-        <v>6897535.519929474</v>
+        <v>6897581.260525526</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111486581</v>
+        <v>111486559</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1958,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610072.3796948178</v>
+        <v>610236.04261225</v>
       </c>
       <c r="R13" t="n">
-        <v>6897129.783162965</v>
+        <v>6897547.660441305</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111486569</v>
+        <v>111486552</v>
       </c>
       <c r="B14" t="n">
-        <v>89425</v>
+        <v>78081</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2046,21 +2046,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5442</v>
+        <v>229821</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610141.0038371853</v>
+        <v>610202.9845822605</v>
       </c>
       <c r="R14" t="n">
-        <v>6897392.254898546</v>
+        <v>6897614.31648521</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111486547</v>
+        <v>111486571</v>
       </c>
       <c r="B15" t="n">
-        <v>76495</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2154,25 +2154,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6487</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2182,10 +2182,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610214.3838179935</v>
+        <v>610186.5997174035</v>
       </c>
       <c r="R15" t="n">
-        <v>6897609.083555548</v>
+        <v>6897342.822581144</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111486577</v>
+        <v>111486585</v>
       </c>
       <c r="B16" t="n">
-        <v>77268</v>
+        <v>73634</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2266,25 +2266,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>6426</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610245.4727674432</v>
+        <v>610347.1442693399</v>
       </c>
       <c r="R16" t="n">
-        <v>6897273.734988614</v>
+        <v>6897598.013066654</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111486548</v>
+        <v>111486575</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2378,25 +2378,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2406,10 +2406,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610211.0056098022</v>
+        <v>610234.356536509</v>
       </c>
       <c r="R17" t="n">
-        <v>6897612.243104065</v>
+        <v>6897284.584036393</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111486574</v>
+        <v>111486548</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2518,10 +2518,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610224.6307519674</v>
+        <v>610211.0056098022</v>
       </c>
       <c r="R18" t="n">
-        <v>6897324.444504307</v>
+        <v>6897612.243104065</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111486565</v>
+        <v>111486567</v>
       </c>
       <c r="B19" t="n">
-        <v>78081</v>
+        <v>93057</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2602,25 +2602,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>229821</v>
+        <v>2809</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2630,10 +2630,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610237.2946205279</v>
+        <v>610195.0273142112</v>
       </c>
       <c r="R19" t="n">
-        <v>6897509.394074276</v>
+        <v>6897457.090065848</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111486576</v>
+        <v>111486581</v>
       </c>
       <c r="B20" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2714,25 +2714,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2742,10 +2742,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610214.2438761768</v>
+        <v>610072.3796948178</v>
       </c>
       <c r="R20" t="n">
-        <v>6897284.393316317</v>
+        <v>6897129.783162965</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111486562</v>
+        <v>111486572</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2854,10 +2854,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610236.2225055038</v>
+        <v>610186.866762756</v>
       </c>
       <c r="R21" t="n">
-        <v>6897513.563481026</v>
+        <v>6897391.885662847</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111486572</v>
+        <v>111486586</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610186.866762756</v>
+        <v>610319.2657305499</v>
       </c>
       <c r="R22" t="n">
-        <v>6897391.885662847</v>
+        <v>6897606.443173738</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111486559</v>
+        <v>111486557</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610236.04261225</v>
+        <v>610221.9365824561</v>
       </c>
       <c r="R23" t="n">
-        <v>6897547.660441305</v>
+        <v>6897535.519929474</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111486567</v>
+        <v>111486560</v>
       </c>
       <c r="B25" t="n">
-        <v>93057</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3274,25 +3274,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2809</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610195.0273142112</v>
+        <v>610242.9519009186</v>
       </c>
       <c r="R25" t="n">
-        <v>6897457.090065848</v>
+        <v>6897536.674650873</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111486560</v>
+        <v>111486562</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3386,25 +3386,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610242.9519009186</v>
+        <v>610236.2225055038</v>
       </c>
       <c r="R26" t="n">
-        <v>6897536.674650873</v>
+        <v>6897513.563481026</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111486570</v>
+        <v>111486563</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3498,25 +3498,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610138.2204190179</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R27" t="n">
-        <v>6897377.214110524</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111486552</v>
+        <v>111486568</v>
       </c>
       <c r="B28" t="n">
-        <v>78081</v>
+        <v>93057</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3610,25 +3610,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>229821</v>
+        <v>2809</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610202.9845822605</v>
+        <v>610178.0574054071</v>
       </c>
       <c r="R28" t="n">
-        <v>6897614.31648521</v>
+        <v>6897403.74427297</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111486573</v>
+        <v>111486564</v>
       </c>
       <c r="B29" t="n">
-        <v>96383</v>
+        <v>5135</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3726,21 +3726,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>223621</v>
+        <v>105930</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3750,10 +3750,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610146.8202491006</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R29" t="n">
-        <v>6897400.387088978</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111486584</v>
+        <v>111486582</v>
       </c>
       <c r="B30" t="n">
-        <v>78512</v>
+        <v>88489</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3834,25 +3834,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6456</v>
+        <v>1962</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3862,10 +3862,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610335.6047682473</v>
+        <v>610142.0730319817</v>
       </c>
       <c r="R30" t="n">
-        <v>6897578.948932082</v>
+        <v>6897316.605782338</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111486580</v>
+        <v>111486556</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3946,25 +3946,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610100.4635512675</v>
+        <v>610193.6094834032</v>
       </c>
       <c r="R31" t="n">
-        <v>6897186.766084836</v>
+        <v>6897571.966054032</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111486556</v>
+        <v>111486578</v>
       </c>
       <c r="B32" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,21 +4062,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610193.6094834032</v>
+        <v>610248.2770640558</v>
       </c>
       <c r="R32" t="n">
-        <v>6897571.966054032</v>
+        <v>6897273.826739896</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111486551</v>
+        <v>111486573</v>
       </c>
       <c r="B33" t="n">
-        <v>89425</v>
+        <v>96383</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4170,25 +4170,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>223621</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610206.9311065455</v>
+        <v>610146.8202491006</v>
       </c>
       <c r="R33" t="n">
-        <v>6897622.387123355</v>
+        <v>6897400.387088978</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111486563</v>
+        <v>111486574</v>
       </c>
       <c r="B34" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4282,25 +4282,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>610237.2946205279</v>
+        <v>610224.6307519674</v>
       </c>
       <c r="R34" t="n">
-        <v>6897509.394074276</v>
+        <v>6897324.444504307</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>

--- a/artfynd/A 59396-2022.xlsx
+++ b/artfynd/A 59396-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486577</v>
+        <v>111486560</v>
       </c>
       <c r="B2" t="n">
-        <v>77268</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610245.4727674432</v>
+        <v>610242.9519009186</v>
       </c>
       <c r="R2" t="n">
-        <v>6897273.734988614</v>
+        <v>6897536.674650873</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486551</v>
+        <v>111486571</v>
       </c>
       <c r="B4" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610206.9311065455</v>
+        <v>610186.5997174035</v>
       </c>
       <c r="R4" t="n">
-        <v>6897622.387123355</v>
+        <v>6897342.822581144</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486580</v>
+        <v>111486565</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>78081</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610100.4635512675</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R5" t="n">
-        <v>6897186.766084836</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486566</v>
+        <v>111486567</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>93057</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>2809</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610196.0688674429</v>
+        <v>610195.0273142112</v>
       </c>
       <c r="R6" t="n">
-        <v>6897453.853924472</v>
+        <v>6897457.090065848</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1216,18 +1216,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>på mossbeväxt block</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1246,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486565</v>
+        <v>111486585</v>
       </c>
       <c r="B7" t="n">
-        <v>78081</v>
+        <v>73634</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1258,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229821</v>
+        <v>6426</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610237.2946205279</v>
+        <v>610347.1442693399</v>
       </c>
       <c r="R7" t="n">
-        <v>6897509.394074276</v>
+        <v>6897598.013066654</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1358,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486576</v>
+        <v>111486583</v>
       </c>
       <c r="B8" t="n">
-        <v>77186</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1398,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610214.2438761768</v>
+        <v>610170.0873515971</v>
       </c>
       <c r="R8" t="n">
-        <v>6897284.393316317</v>
+        <v>6897389.935445569</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1470,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486584</v>
+        <v>111486559</v>
       </c>
       <c r="B9" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1482,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1510,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610335.6047682473</v>
+        <v>610236.04261225</v>
       </c>
       <c r="R9" t="n">
-        <v>6897578.948932082</v>
+        <v>6897547.660441305</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1582,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486570</v>
+        <v>111486586</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1622,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610138.2204190179</v>
+        <v>610319.2657305499</v>
       </c>
       <c r="R10" t="n">
-        <v>6897377.214110524</v>
+        <v>6897606.443173738</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1694,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111486569</v>
+        <v>111486573</v>
       </c>
       <c r="B11" t="n">
-        <v>89425</v>
+        <v>96383</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5442</v>
+        <v>223621</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1734,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610141.0038371853</v>
+        <v>610146.8202491006</v>
       </c>
       <c r="R11" t="n">
-        <v>6897392.254898546</v>
+        <v>6897400.387088978</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1806,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111486554</v>
+        <v>111486556</v>
       </c>
       <c r="B12" t="n">
         <v>78107</v>
@@ -1846,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610206.4050188576</v>
+        <v>610193.6094834032</v>
       </c>
       <c r="R12" t="n">
-        <v>6897581.260525526</v>
+        <v>6897571.966054032</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1918,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111486559</v>
+        <v>111486563</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1930,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1958,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610236.04261225</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R13" t="n">
-        <v>6897547.660441305</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2030,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111486552</v>
+        <v>111486570</v>
       </c>
       <c r="B14" t="n">
-        <v>78081</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2042,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>229821</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2070,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610202.9845822605</v>
+        <v>610138.2204190179</v>
       </c>
       <c r="R14" t="n">
-        <v>6897614.31648521</v>
+        <v>6897377.214110524</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2142,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111486571</v>
+        <v>111486577</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2154,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2182,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610186.5997174035</v>
+        <v>610245.4727674432</v>
       </c>
       <c r="R15" t="n">
-        <v>6897342.822581144</v>
+        <v>6897273.734988614</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2254,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111486585</v>
+        <v>111486557</v>
       </c>
       <c r="B16" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2266,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2294,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610347.1442693399</v>
+        <v>610221.9365824561</v>
       </c>
       <c r="R16" t="n">
-        <v>6897598.013066654</v>
+        <v>6897535.519929474</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2366,7 +2360,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111486575</v>
+        <v>111486562</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2406,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610234.356536509</v>
+        <v>610236.2225055038</v>
       </c>
       <c r="R17" t="n">
-        <v>6897284.584036393</v>
+        <v>6897513.563481026</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2478,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111486548</v>
+        <v>111486568</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>93057</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2490,25 +2484,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>2809</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2518,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610211.0056098022</v>
+        <v>610178.0574054071</v>
       </c>
       <c r="R18" t="n">
-        <v>6897612.243104065</v>
+        <v>6897403.74427297</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2590,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111486567</v>
+        <v>111486569</v>
       </c>
       <c r="B19" t="n">
-        <v>93057</v>
+        <v>89425</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2602,25 +2596,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2809</v>
+        <v>5442</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2630,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610195.0273142112</v>
+        <v>610141.0038371853</v>
       </c>
       <c r="R19" t="n">
-        <v>6897457.090065848</v>
+        <v>6897392.254898546</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2702,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111486581</v>
+        <v>111486551</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2714,25 +2708,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2742,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610072.3796948178</v>
+        <v>610206.9311065455</v>
       </c>
       <c r="R20" t="n">
-        <v>6897129.783162965</v>
+        <v>6897622.387123355</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2814,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111486572</v>
+        <v>111486582</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>88489</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2826,25 +2820,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>1962</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2854,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610186.866762756</v>
+        <v>610142.0730319817</v>
       </c>
       <c r="R21" t="n">
-        <v>6897391.885662847</v>
+        <v>6897316.605782338</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2926,7 +2920,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111486586</v>
+        <v>111486581</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -2966,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610319.2657305499</v>
+        <v>610072.3796948178</v>
       </c>
       <c r="R22" t="n">
-        <v>6897606.443173738</v>
+        <v>6897129.783162965</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3038,7 +3032,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111486557</v>
+        <v>111486572</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3078,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610221.9365824561</v>
+        <v>610186.866762756</v>
       </c>
       <c r="R23" t="n">
-        <v>6897535.519929474</v>
+        <v>6897391.885662847</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3150,10 +3144,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111486583</v>
+        <v>111486578</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>77267</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3166,21 +3160,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3190,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>610170.0873515971</v>
+        <v>610248.2770640558</v>
       </c>
       <c r="R24" t="n">
-        <v>6897389.935445569</v>
+        <v>6897273.826739896</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3262,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111486560</v>
+        <v>111486564</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>5135</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3274,25 +3268,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>105930</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3302,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610242.9519009186</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R25" t="n">
-        <v>6897536.674650873</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3374,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111486562</v>
+        <v>111486552</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>78081</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3386,25 +3380,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3414,10 +3408,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610236.2225055038</v>
+        <v>610202.9845822605</v>
       </c>
       <c r="R26" t="n">
-        <v>6897513.563481026</v>
+        <v>6897614.31648521</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3486,7 +3480,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111486563</v>
+        <v>111486576</v>
       </c>
       <c r="B27" t="n">
         <v>77186</v>
@@ -3526,10 +3520,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610237.2946205279</v>
+        <v>610214.2438761768</v>
       </c>
       <c r="R27" t="n">
-        <v>6897509.394074276</v>
+        <v>6897284.393316317</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3598,10 +3592,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111486568</v>
+        <v>111486575</v>
       </c>
       <c r="B28" t="n">
-        <v>93057</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3610,25 +3604,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2809</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3638,10 +3632,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610178.0574054071</v>
+        <v>610234.356536509</v>
       </c>
       <c r="R28" t="n">
-        <v>6897403.74427297</v>
+        <v>6897284.584036393</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3710,10 +3704,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111486564</v>
+        <v>111486548</v>
       </c>
       <c r="B29" t="n">
-        <v>5135</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3722,25 +3716,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3750,10 +3744,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610237.2946205279</v>
+        <v>610211.0056098022</v>
       </c>
       <c r="R29" t="n">
-        <v>6897509.394074276</v>
+        <v>6897612.243104065</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3822,10 +3816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111486582</v>
+        <v>111486584</v>
       </c>
       <c r="B30" t="n">
-        <v>88489</v>
+        <v>78512</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3834,25 +3828,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1962</v>
+        <v>6456</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3862,10 +3856,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610142.0730319817</v>
+        <v>610335.6047682473</v>
       </c>
       <c r="R30" t="n">
-        <v>6897316.605782338</v>
+        <v>6897578.948932082</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3934,10 +3928,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111486556</v>
+        <v>111486574</v>
       </c>
       <c r="B31" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3946,25 +3940,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3974,10 +3968,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610193.6094834032</v>
+        <v>610224.6307519674</v>
       </c>
       <c r="R31" t="n">
-        <v>6897571.966054032</v>
+        <v>6897324.444504307</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4046,10 +4040,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111486578</v>
+        <v>111486566</v>
       </c>
       <c r="B32" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4058,25 +4052,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4086,10 +4080,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610248.2770640558</v>
+        <v>610196.0688674429</v>
       </c>
       <c r="R32" t="n">
-        <v>6897273.826739896</v>
+        <v>6897453.853924472</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4134,12 +4128,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>på mossbeväxt block</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111486573</v>
+        <v>111486580</v>
       </c>
       <c r="B33" t="n">
-        <v>96383</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4170,25 +4170,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>223621</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610146.8202491006</v>
+        <v>610100.4635512675</v>
       </c>
       <c r="R33" t="n">
-        <v>6897400.387088978</v>
+        <v>6897186.766084836</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111486574</v>
+        <v>111486554</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4282,25 +4282,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>610224.6307519674</v>
+        <v>610206.4050188576</v>
       </c>
       <c r="R34" t="n">
-        <v>6897324.444504307</v>
+        <v>6897581.260525526</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>

--- a/artfynd/A 59396-2022.xlsx
+++ b/artfynd/A 59396-2022.xlsx
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111486573</v>
+        <v>111486556</v>
       </c>
       <c r="B11" t="n">
-        <v>96383</v>
+        <v>78107</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>223621</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610146.8202491006</v>
+        <v>610193.6094834032</v>
       </c>
       <c r="R11" t="n">
-        <v>6897400.387088978</v>
+        <v>6897571.966054032</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111486556</v>
+        <v>111486563</v>
       </c>
       <c r="B12" t="n">
-        <v>78107</v>
+        <v>77186</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610193.6094834032</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R12" t="n">
-        <v>6897571.966054032</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111486563</v>
+        <v>111486570</v>
       </c>
       <c r="B13" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610237.2946205279</v>
+        <v>610138.2204190179</v>
       </c>
       <c r="R13" t="n">
-        <v>6897509.394074276</v>
+        <v>6897377.214110524</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111486570</v>
+        <v>111486573</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>96383</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>223621</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610138.2204190179</v>
+        <v>610146.8202491006</v>
       </c>
       <c r="R14" t="n">
-        <v>6897377.214110524</v>
+        <v>6897400.387088978</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>

--- a/artfynd/A 59396-2022.xlsx
+++ b/artfynd/A 59396-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486560</v>
+        <v>111486562</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610242.9519009186</v>
+        <v>610236.2225055038</v>
       </c>
       <c r="R2" t="n">
-        <v>6897536.674650873</v>
+        <v>6897513.563481026</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486547</v>
+        <v>111486573</v>
       </c>
       <c r="B3" t="n">
-        <v>76495</v>
+        <v>96383</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6487</v>
+        <v>223621</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610214.3838179935</v>
+        <v>610146.8202491006</v>
       </c>
       <c r="R3" t="n">
-        <v>6897609.083555548</v>
+        <v>6897400.387088978</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486571</v>
+        <v>111486570</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610186.5997174035</v>
+        <v>610138.2204190179</v>
       </c>
       <c r="R4" t="n">
-        <v>6897342.822581144</v>
+        <v>6897377.214110524</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486567</v>
+        <v>111486559</v>
       </c>
       <c r="B6" t="n">
-        <v>93057</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2809</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610195.0273142112</v>
+        <v>610236.04261225</v>
       </c>
       <c r="R6" t="n">
-        <v>6897457.090065848</v>
+        <v>6897547.660441305</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486585</v>
+        <v>111486567</v>
       </c>
       <c r="B7" t="n">
-        <v>73634</v>
+        <v>93057</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6426</v>
+        <v>2809</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610347.1442693399</v>
+        <v>610195.0273142112</v>
       </c>
       <c r="R7" t="n">
-        <v>6897598.013066654</v>
+        <v>6897457.090065848</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486583</v>
+        <v>111486560</v>
       </c>
       <c r="B8" t="n">
         <v>89405</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610170.0873515971</v>
+        <v>610242.9519009186</v>
       </c>
       <c r="R8" t="n">
-        <v>6897389.935445569</v>
+        <v>6897536.674650873</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486559</v>
+        <v>111486574</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610236.04261225</v>
+        <v>610224.6307519674</v>
       </c>
       <c r="R9" t="n">
-        <v>6897547.660441305</v>
+        <v>6897324.444504307</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486586</v>
+        <v>111486566</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610319.2657305499</v>
+        <v>610196.0688674429</v>
       </c>
       <c r="R10" t="n">
-        <v>6897606.443173738</v>
+        <v>6897453.853924472</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1664,12 +1664,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>på mossbeväxt block</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1688,10 +1694,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111486556</v>
+        <v>111486547</v>
       </c>
       <c r="B11" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1710,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1734,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610193.6094834032</v>
+        <v>610214.3838179935</v>
       </c>
       <c r="R11" t="n">
-        <v>6897571.966054032</v>
+        <v>6897609.083555548</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1912,7 +1918,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111486570</v>
+        <v>111486571</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1952,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610138.2204190179</v>
+        <v>610186.5997174035</v>
       </c>
       <c r="R13" t="n">
-        <v>6897377.214110524</v>
+        <v>6897342.822581144</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2024,10 +2030,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111486573</v>
+        <v>111486585</v>
       </c>
       <c r="B14" t="n">
-        <v>96383</v>
+        <v>73634</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2046,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>223621</v>
+        <v>6426</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2070,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610146.8202491006</v>
+        <v>610347.1442693399</v>
       </c>
       <c r="R14" t="n">
-        <v>6897400.387088978</v>
+        <v>6897598.013066654</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2136,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111486577</v>
+        <v>111486583</v>
       </c>
       <c r="B15" t="n">
-        <v>77268</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2158,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2182,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610245.4727674432</v>
+        <v>610170.0873515971</v>
       </c>
       <c r="R15" t="n">
-        <v>6897273.734988614</v>
+        <v>6897389.935445569</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,10 +2254,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111486557</v>
+        <v>111486556</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2266,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2294,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610221.9365824561</v>
+        <v>610193.6094834032</v>
       </c>
       <c r="R16" t="n">
-        <v>6897535.519929474</v>
+        <v>6897571.966054032</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2360,7 +2366,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111486562</v>
+        <v>111486572</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2400,10 +2406,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610236.2225055038</v>
+        <v>610186.866762756</v>
       </c>
       <c r="R17" t="n">
-        <v>6897513.563481026</v>
+        <v>6897391.885662847</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2472,10 +2478,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111486568</v>
+        <v>111486564</v>
       </c>
       <c r="B18" t="n">
-        <v>93057</v>
+        <v>5135</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2494,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2809</v>
+        <v>105930</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2518,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610178.0574054071</v>
+        <v>610237.2946205279</v>
       </c>
       <c r="R18" t="n">
-        <v>6897403.74427297</v>
+        <v>6897509.394074276</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2584,10 +2590,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111486569</v>
+        <v>111486557</v>
       </c>
       <c r="B19" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,25 +2602,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2630,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610141.0038371853</v>
+        <v>610221.9365824561</v>
       </c>
       <c r="R19" t="n">
-        <v>6897392.254898546</v>
+        <v>6897535.519929474</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2696,10 +2702,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111486551</v>
+        <v>111486576</v>
       </c>
       <c r="B20" t="n">
-        <v>89425</v>
+        <v>77186</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2718,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5442</v>
+        <v>353</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2742,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610206.9311065455</v>
+        <v>610214.2438761768</v>
       </c>
       <c r="R20" t="n">
-        <v>6897622.387123355</v>
+        <v>6897284.393316317</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2808,10 +2814,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111486582</v>
+        <v>111486552</v>
       </c>
       <c r="B21" t="n">
-        <v>88489</v>
+        <v>78081</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,21 +2830,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1962</v>
+        <v>229821</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2854,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610142.0730319817</v>
+        <v>610202.9845822605</v>
       </c>
       <c r="R21" t="n">
-        <v>6897316.605782338</v>
+        <v>6897614.31648521</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2920,10 +2926,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111486581</v>
+        <v>111486577</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2932,25 +2938,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2966,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610072.3796948178</v>
+        <v>610245.4727674432</v>
       </c>
       <c r="R22" t="n">
-        <v>6897129.783162965</v>
+        <v>6897273.734988614</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3032,10 +3038,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111486572</v>
+        <v>111486584</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3044,25 +3050,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3072,10 +3078,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610186.866762756</v>
+        <v>610335.6047682473</v>
       </c>
       <c r="R23" t="n">
-        <v>6897391.885662847</v>
+        <v>6897578.948932082</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3144,10 +3150,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111486578</v>
+        <v>111486569</v>
       </c>
       <c r="B24" t="n">
-        <v>77267</v>
+        <v>89425</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3160,21 +3166,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6446</v>
+        <v>5442</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3184,10 +3190,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>610248.2770640558</v>
+        <v>610141.0038371853</v>
       </c>
       <c r="R24" t="n">
-        <v>6897273.826739896</v>
+        <v>6897392.254898546</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3256,10 +3262,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111486564</v>
+        <v>111486554</v>
       </c>
       <c r="B25" t="n">
-        <v>5135</v>
+        <v>78107</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3268,25 +3274,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>105930</v>
+        <v>6453</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3302,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>610237.2946205279</v>
+        <v>610206.4050188576</v>
       </c>
       <c r="R25" t="n">
-        <v>6897509.394074276</v>
+        <v>6897581.260525526</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3368,10 +3374,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111486552</v>
+        <v>111486568</v>
       </c>
       <c r="B26" t="n">
-        <v>78081</v>
+        <v>93057</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3380,25 +3386,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>229821</v>
+        <v>2809</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3408,10 +3414,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610202.9845822605</v>
+        <v>610178.0574054071</v>
       </c>
       <c r="R26" t="n">
-        <v>6897614.31648521</v>
+        <v>6897403.74427297</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3480,10 +3486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111486576</v>
+        <v>111486586</v>
       </c>
       <c r="B27" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3492,25 +3498,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3520,10 +3526,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>610214.2438761768</v>
+        <v>610319.2657305499</v>
       </c>
       <c r="R27" t="n">
-        <v>6897284.393316317</v>
+        <v>6897606.443173738</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3592,10 +3598,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111486575</v>
+        <v>111486578</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3604,25 +3610,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3632,10 +3638,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>610234.356536509</v>
+        <v>610248.2770640558</v>
       </c>
       <c r="R28" t="n">
-        <v>6897284.584036393</v>
+        <v>6897273.826739896</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3704,10 +3710,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111486548</v>
+        <v>111486575</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3716,25 +3722,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3744,10 +3750,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>610211.0056098022</v>
+        <v>610234.356536509</v>
       </c>
       <c r="R29" t="n">
-        <v>6897612.243104065</v>
+        <v>6897284.584036393</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3816,10 +3822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111486584</v>
+        <v>111486551</v>
       </c>
       <c r="B30" t="n">
-        <v>78512</v>
+        <v>89425</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3828,25 +3834,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6456</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3856,10 +3862,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>610335.6047682473</v>
+        <v>610206.9311065455</v>
       </c>
       <c r="R30" t="n">
-        <v>6897578.948932082</v>
+        <v>6897622.387123355</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3928,7 +3934,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111486574</v>
+        <v>111486581</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -3968,10 +3974,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>610224.6307519674</v>
+        <v>610072.3796948178</v>
       </c>
       <c r="R31" t="n">
-        <v>6897324.444504307</v>
+        <v>6897129.783162965</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4040,10 +4046,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111486566</v>
+        <v>111486548</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4052,25 +4058,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4080,10 +4086,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>610196.0688674429</v>
+        <v>610211.0056098022</v>
       </c>
       <c r="R32" t="n">
-        <v>6897453.853924472</v>
+        <v>6897612.243104065</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4128,18 +4134,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>på mossbeväxt block</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111486580</v>
+        <v>111486582</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>88489</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4170,25 +4170,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>1962</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>610100.4635512675</v>
+        <v>610142.0730319817</v>
       </c>
       <c r="R33" t="n">
-        <v>6897186.766084836</v>
+        <v>6897316.605782338</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111486554</v>
+        <v>111486580</v>
       </c>
       <c r="B34" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4282,25 +4282,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>610206.4050188576</v>
+        <v>610100.4635512675</v>
       </c>
       <c r="R34" t="n">
-        <v>6897581.260525526</v>
+        <v>6897186.766084836</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
